--- a/yahoofinance/EDV_yahoofin_historical_data.xlsx
+++ b/yahoofinance/EDV_yahoofin_historical_data.xlsx
@@ -614,7 +614,7 @@
         <v>87.529999</v>
       </c>
       <c r="F7" t="n">
-        <v>84.34063</v>
+        <v>84.340622</v>
       </c>
       <c r="G7" t="n">
         <v>329500</v>
@@ -639,7 +639,7 @@
         <v>89.5</v>
       </c>
       <c r="F8" t="n">
-        <v>86.238846</v>
+        <v>86.23885300000001</v>
       </c>
       <c r="G8" t="n">
         <v>158700</v>
@@ -689,7 +689,7 @@
         <v>90.949997</v>
       </c>
       <c r="F10" t="n">
-        <v>87.636017</v>
+        <v>87.636009</v>
       </c>
       <c r="G10" t="n">
         <v>290200</v>
@@ -764,7 +764,7 @@
         <v>92.129997</v>
       </c>
       <c r="F13" t="n">
-        <v>88.77301799999999</v>
+        <v>88.77301</v>
       </c>
       <c r="G13" t="n">
         <v>235000</v>
@@ -814,7 +814,7 @@
         <v>89.5</v>
       </c>
       <c r="F15" t="n">
-        <v>86.238846</v>
+        <v>86.23885300000001</v>
       </c>
       <c r="G15" t="n">
         <v>250400</v>
@@ -889,7 +889,7 @@
         <v>91.139999</v>
       </c>
       <c r="F18" t="n">
-        <v>87.819092</v>
+        <v>87.819084</v>
       </c>
       <c r="G18" t="n">
         <v>184000</v>
@@ -964,7 +964,7 @@
         <v>91.260002</v>
       </c>
       <c r="F21" t="n">
-        <v>87.93472300000001</v>
+        <v>87.934715</v>
       </c>
       <c r="G21" t="n">
         <v>228600</v>
@@ -1039,7 +1039,7 @@
         <v>91.41999800000001</v>
       </c>
       <c r="F24" t="n">
-        <v>88.088882</v>
+        <v>88.08889000000001</v>
       </c>
       <c r="G24" t="n">
         <v>353200</v>
@@ -1289,7 +1289,7 @@
         <v>86.300003</v>
       </c>
       <c r="F34" t="n">
-        <v>83.155457</v>
+        <v>83.155449</v>
       </c>
       <c r="G34" t="n">
         <v>164100</v>
@@ -1314,7 +1314,7 @@
         <v>84.129997</v>
       </c>
       <c r="F35" t="n">
-        <v>81.064514</v>
+        <v>81.06450700000001</v>
       </c>
       <c r="G35" t="n">
         <v>356800</v>
@@ -1339,7 +1339,7 @@
         <v>85.300003</v>
       </c>
       <c r="F36" t="n">
-        <v>82.191879</v>
+        <v>82.19188699999999</v>
       </c>
       <c r="G36" t="n">
         <v>115300</v>
@@ -1364,7 +1364,7 @@
         <v>86.480003</v>
       </c>
       <c r="F37" t="n">
-        <v>83.328896</v>
+        <v>83.32888800000001</v>
       </c>
       <c r="G37" t="n">
         <v>138900</v>
@@ -1414,7 +1414,7 @@
         <v>85.160004</v>
       </c>
       <c r="F39" t="n">
-        <v>82.056984</v>
+        <v>82.05699199999999</v>
       </c>
       <c r="G39" t="n">
         <v>283500</v>
@@ -1439,7 +1439,7 @@
         <v>85.449997</v>
       </c>
       <c r="F40" t="n">
-        <v>82.336411</v>
+        <v>82.33641799999999</v>
       </c>
       <c r="G40" t="n">
         <v>157800</v>
@@ -1489,7 +1489,7 @@
         <v>83.610001</v>
       </c>
       <c r="F42" t="n">
-        <v>80.563461</v>
+        <v>80.563469</v>
       </c>
       <c r="G42" t="n">
         <v>237500</v>
@@ -1514,7 +1514,7 @@
         <v>86.400002</v>
       </c>
       <c r="F43" t="n">
-        <v>83.251801</v>
+        <v>83.251808</v>
       </c>
       <c r="G43" t="n">
         <v>185500</v>
@@ -1539,7 +1539,7 @@
         <v>85.519997</v>
       </c>
       <c r="F44" t="n">
-        <v>82.40387</v>
+        <v>82.403862</v>
       </c>
       <c r="G44" t="n">
         <v>169400</v>
@@ -1639,7 +1639,7 @@
         <v>90.269997</v>
       </c>
       <c r="F48" t="n">
-        <v>86.980789</v>
+        <v>86.980782</v>
       </c>
       <c r="G48" t="n">
         <v>657100</v>
@@ -1689,7 +1689,7 @@
         <v>88.300003</v>
       </c>
       <c r="F50" t="n">
-        <v>85.082581</v>
+        <v>85.082573</v>
       </c>
       <c r="G50" t="n">
         <v>444700</v>
@@ -1714,7 +1714,7 @@
         <v>90.449997</v>
       </c>
       <c r="F51" t="n">
-        <v>87.15422100000001</v>
+        <v>87.154228</v>
       </c>
       <c r="G51" t="n">
         <v>341500</v>
@@ -1814,7 +1814,7 @@
         <v>89.30999799999999</v>
       </c>
       <c r="F55" t="n">
-        <v>86.055763</v>
+        <v>86.05577099999999</v>
       </c>
       <c r="G55" t="n">
         <v>845800</v>
@@ -1914,7 +1914,7 @@
         <v>88.150002</v>
       </c>
       <c r="F59" t="n">
-        <v>84.938042</v>
+        <v>84.938034</v>
       </c>
       <c r="G59" t="n">
         <v>1142600</v>
@@ -1939,7 +1939,7 @@
         <v>88.300003</v>
       </c>
       <c r="F60" t="n">
-        <v>85.082581</v>
+        <v>85.082573</v>
       </c>
       <c r="G60" t="n">
         <v>847100</v>
@@ -2314,7 +2314,7 @@
         <v>87.459999</v>
       </c>
       <c r="F75" t="n">
-        <v>84.90522799999999</v>
+        <v>84.905235</v>
       </c>
       <c r="G75" t="n">
         <v>563400</v>
@@ -2514,7 +2514,7 @@
         <v>86.540001</v>
       </c>
       <c r="F83" t="n">
-        <v>84.0121</v>
+        <v>84.012108</v>
       </c>
       <c r="G83" t="n">
         <v>850900</v>
@@ -2614,7 +2614,7 @@
         <v>88.220001</v>
       </c>
       <c r="F87" t="n">
-        <v>85.643028</v>
+        <v>85.643036</v>
       </c>
       <c r="G87" t="n">
         <v>466000</v>
@@ -2664,7 +2664,7 @@
         <v>86.150002</v>
       </c>
       <c r="F89" t="n">
-        <v>83.633492</v>
+        <v>83.633499</v>
       </c>
       <c r="G89" t="n">
         <v>351900</v>
@@ -2689,7 +2689,7 @@
         <v>87.099998</v>
       </c>
       <c r="F90" t="n">
-        <v>84.55574</v>
+        <v>84.55574799999999</v>
       </c>
       <c r="G90" t="n">
         <v>513900</v>
@@ -2739,7 +2739,7 @@
         <v>87.449997</v>
       </c>
       <c r="F92" t="n">
-        <v>84.895523</v>
+        <v>84.895515</v>
       </c>
       <c r="G92" t="n">
         <v>184800</v>
@@ -2764,7 +2764,7 @@
         <v>86.269997</v>
       </c>
       <c r="F93" t="n">
-        <v>83.749985</v>
+        <v>83.74999200000001</v>
       </c>
       <c r="G93" t="n">
         <v>382900</v>
@@ -2889,7 +2889,7 @@
         <v>83.58000199999999</v>
       </c>
       <c r="F98" t="n">
-        <v>81.138565</v>
+        <v>81.13857299999999</v>
       </c>
       <c r="G98" t="n">
         <v>390300</v>
@@ -2914,7 +2914,7 @@
         <v>83.959999</v>
       </c>
       <c r="F99" t="n">
-        <v>81.507469</v>
+        <v>81.507462</v>
       </c>
       <c r="G99" t="n">
         <v>396600</v>
@@ -2964,7 +2964,7 @@
         <v>83.349998</v>
       </c>
       <c r="F101" t="n">
-        <v>80.915291</v>
+        <v>80.915283</v>
       </c>
       <c r="G101" t="n">
         <v>374500</v>
@@ -2989,7 +2989,7 @@
         <v>84.279999</v>
       </c>
       <c r="F102" t="n">
-        <v>81.81811500000001</v>
+        <v>81.818123</v>
       </c>
       <c r="G102" t="n">
         <v>274700</v>
@@ -3164,7 +3164,7 @@
         <v>84.400002</v>
       </c>
       <c r="F109" t="n">
-        <v>81.93461600000001</v>
+        <v>81.934624</v>
       </c>
       <c r="G109" t="n">
         <v>531700</v>
@@ -3289,7 +3289,7 @@
         <v>85.980003</v>
       </c>
       <c r="F114" t="n">
-        <v>83.46845999999999</v>
+        <v>83.468468</v>
       </c>
       <c r="G114" t="n">
         <v>154000</v>
@@ -3364,7 +3364,7 @@
         <v>87.43000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>84.876114</v>
+        <v>84.87610599999999</v>
       </c>
       <c r="G117" t="n">
         <v>205800</v>
@@ -3539,7 +3539,7 @@
         <v>85.699997</v>
       </c>
       <c r="F124" t="n">
-        <v>83.19663199999999</v>
+        <v>83.19664</v>
       </c>
       <c r="G124" t="n">
         <v>342900</v>
@@ -3564,7 +3564,7 @@
         <v>87.06999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>84.526619</v>
+        <v>84.526627</v>
       </c>
       <c r="G125" t="n">
         <v>190000</v>
@@ -5867,7 +5867,7 @@
         <v>68.349998</v>
       </c>
       <c r="G217" t="n">
-        <v>1367300</v>
+        <v>1369900</v>
       </c>
     </row>
     <row r="218">
@@ -5883,16 +5883,16 @@
         <v>69.370003</v>
       </c>
       <c r="D218" t="n">
-        <v>68.875</v>
+        <v>68.730003</v>
       </c>
       <c r="E218" t="n">
-        <v>68.942001</v>
+        <v>68.94000200000001</v>
       </c>
       <c r="F218" t="n">
-        <v>68.942001</v>
+        <v>68.94000200000001</v>
       </c>
       <c r="G218" t="n">
-        <v>169373</v>
+        <v>575100</v>
       </c>
     </row>
   </sheetData>

--- a/yahoofinance/EDV_yahoofin_historical_data.xlsx
+++ b/yahoofinance/EDV_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
         <v>86.989998</v>
       </c>
       <c r="F4" t="n">
-        <v>83.820297</v>
+        <v>83.820305</v>
       </c>
       <c r="G4" t="n">
         <v>383400</v>
@@ -564,7 +564,7 @@
         <v>89.040001</v>
       </c>
       <c r="F5" t="n">
-        <v>85.795609</v>
+        <v>85.795601</v>
       </c>
       <c r="G5" t="n">
         <v>275100</v>
@@ -589,7 +589,7 @@
         <v>89.629997</v>
       </c>
       <c r="F6" t="n">
-        <v>86.364105</v>
+        <v>86.364113</v>
       </c>
       <c r="G6" t="n">
         <v>284800</v>
@@ -614,7 +614,7 @@
         <v>87.529999</v>
       </c>
       <c r="F7" t="n">
-        <v>84.340622</v>
+        <v>84.34063</v>
       </c>
       <c r="G7" t="n">
         <v>329500</v>
@@ -639,7 +639,7 @@
         <v>89.5</v>
       </c>
       <c r="F8" t="n">
-        <v>86.23885300000001</v>
+        <v>86.238846</v>
       </c>
       <c r="G8" t="n">
         <v>158700</v>
@@ -739,7 +739,7 @@
         <v>92.83000199999999</v>
       </c>
       <c r="F12" t="n">
-        <v>89.447517</v>
+        <v>89.44750999999999</v>
       </c>
       <c r="G12" t="n">
         <v>334400</v>
@@ -789,7 +789,7 @@
         <v>90.050003</v>
       </c>
       <c r="F14" t="n">
-        <v>86.768806</v>
+        <v>86.76881400000001</v>
       </c>
       <c r="G14" t="n">
         <v>224100</v>
@@ -814,7 +814,7 @@
         <v>89.5</v>
       </c>
       <c r="F15" t="n">
-        <v>86.23885300000001</v>
+        <v>86.238846</v>
       </c>
       <c r="G15" t="n">
         <v>250400</v>
@@ -914,7 +914,7 @@
         <v>90.980003</v>
       </c>
       <c r="F19" t="n">
-        <v>87.664925</v>
+        <v>87.664917</v>
       </c>
       <c r="G19" t="n">
         <v>220800</v>
@@ -1039,7 +1039,7 @@
         <v>91.41999800000001</v>
       </c>
       <c r="F24" t="n">
-        <v>88.08889000000001</v>
+        <v>88.088882</v>
       </c>
       <c r="G24" t="n">
         <v>353200</v>
@@ -1064,7 +1064,7 @@
         <v>90.639999</v>
       </c>
       <c r="F25" t="n">
-        <v>87.337311</v>
+        <v>87.33730300000001</v>
       </c>
       <c r="G25" t="n">
         <v>285200</v>
@@ -1089,7 +1089,7 @@
         <v>89.519997</v>
       </c>
       <c r="F26" t="n">
-        <v>86.25811</v>
+        <v>86.258118</v>
       </c>
       <c r="G26" t="n">
         <v>241900</v>
@@ -1464,7 +1464,7 @@
         <v>84.55999799999999</v>
       </c>
       <c r="F41" t="n">
-        <v>81.478844</v>
+        <v>81.47885100000001</v>
       </c>
       <c r="G41" t="n">
         <v>219100</v>
@@ -1514,7 +1514,7 @@
         <v>86.400002</v>
       </c>
       <c r="F43" t="n">
-        <v>83.251808</v>
+        <v>83.251801</v>
       </c>
       <c r="G43" t="n">
         <v>185500</v>
@@ -1564,7 +1564,7 @@
         <v>86.260002</v>
       </c>
       <c r="F45" t="n">
-        <v>83.116905</v>
+        <v>83.116913</v>
       </c>
       <c r="G45" t="n">
         <v>138900</v>
@@ -1664,7 +1664,7 @@
         <v>90.400002</v>
       </c>
       <c r="F49" t="n">
-        <v>87.106056</v>
+        <v>87.106049</v>
       </c>
       <c r="G49" t="n">
         <v>639900</v>
@@ -1789,7 +1789,7 @@
         <v>90.110001</v>
       </c>
       <c r="F54" t="n">
-        <v>86.826622</v>
+        <v>86.82661400000001</v>
       </c>
       <c r="G54" t="n">
         <v>350000</v>
@@ -1964,7 +1964,7 @@
         <v>88.139999</v>
       </c>
       <c r="F61" t="n">
-        <v>84.928406</v>
+        <v>84.928398</v>
       </c>
       <c r="G61" t="n">
         <v>332000</v>
@@ -5893,6 +5893,281 @@
       </c>
       <c r="G218" t="n">
         <v>575100</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>68.019997</v>
+      </c>
+      <c r="C219" t="n">
+        <v>68.83000199999999</v>
+      </c>
+      <c r="D219" t="n">
+        <v>67.650002</v>
+      </c>
+      <c r="E219" t="n">
+        <v>68.639999</v>
+      </c>
+      <c r="F219" t="n">
+        <v>68.639999</v>
+      </c>
+      <c r="G219" t="n">
+        <v>488400</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>71.029999</v>
+      </c>
+      <c r="C220" t="n">
+        <v>71.209999</v>
+      </c>
+      <c r="D220" t="n">
+        <v>70.18000000000001</v>
+      </c>
+      <c r="E220" t="n">
+        <v>70.769997</v>
+      </c>
+      <c r="F220" t="n">
+        <v>70.769997</v>
+      </c>
+      <c r="G220" t="n">
+        <v>470700</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>69.959999</v>
+      </c>
+      <c r="C221" t="n">
+        <v>70</v>
+      </c>
+      <c r="D221" t="n">
+        <v>69.150002</v>
+      </c>
+      <c r="E221" t="n">
+        <v>69.400002</v>
+      </c>
+      <c r="F221" t="n">
+        <v>69.400002</v>
+      </c>
+      <c r="G221" t="n">
+        <v>481700</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>70.209999</v>
+      </c>
+      <c r="C222" t="n">
+        <v>70.949997</v>
+      </c>
+      <c r="D222" t="n">
+        <v>70.150002</v>
+      </c>
+      <c r="E222" t="n">
+        <v>70.540001</v>
+      </c>
+      <c r="F222" t="n">
+        <v>70.540001</v>
+      </c>
+      <c r="G222" t="n">
+        <v>711900</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>71.260002</v>
+      </c>
+      <c r="C223" t="n">
+        <v>71.540001</v>
+      </c>
+      <c r="D223" t="n">
+        <v>70.650002</v>
+      </c>
+      <c r="E223" t="n">
+        <v>71.050003</v>
+      </c>
+      <c r="F223" t="n">
+        <v>71.050003</v>
+      </c>
+      <c r="G223" t="n">
+        <v>518900</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>70.660004</v>
+      </c>
+      <c r="C224" t="n">
+        <v>71.790001</v>
+      </c>
+      <c r="D224" t="n">
+        <v>70.650002</v>
+      </c>
+      <c r="E224" t="n">
+        <v>71.69000200000001</v>
+      </c>
+      <c r="F224" t="n">
+        <v>71.69000200000001</v>
+      </c>
+      <c r="G224" t="n">
+        <v>639700</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>71.519997</v>
+      </c>
+      <c r="C225" t="n">
+        <v>71.949997</v>
+      </c>
+      <c r="D225" t="n">
+        <v>70.91999800000001</v>
+      </c>
+      <c r="E225" t="n">
+        <v>71.660004</v>
+      </c>
+      <c r="F225" t="n">
+        <v>71.660004</v>
+      </c>
+      <c r="G225" t="n">
+        <v>408800</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>72.349998</v>
+      </c>
+      <c r="C226" t="n">
+        <v>72.550003</v>
+      </c>
+      <c r="D226" t="n">
+        <v>71.55999799999999</v>
+      </c>
+      <c r="E226" t="n">
+        <v>72.110001</v>
+      </c>
+      <c r="F226" t="n">
+        <v>72.110001</v>
+      </c>
+      <c r="G226" t="n">
+        <v>327100</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>71.31999999999999</v>
+      </c>
+      <c r="C227" t="n">
+        <v>71.400002</v>
+      </c>
+      <c r="D227" t="n">
+        <v>70.93000000000001</v>
+      </c>
+      <c r="E227" t="n">
+        <v>70.93000000000001</v>
+      </c>
+      <c r="F227" t="n">
+        <v>70.93000000000001</v>
+      </c>
+      <c r="G227" t="n">
+        <v>328700</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>71.519997</v>
+      </c>
+      <c r="C228" t="n">
+        <v>72.620003</v>
+      </c>
+      <c r="D228" t="n">
+        <v>71.400002</v>
+      </c>
+      <c r="E228" t="n">
+        <v>72.620003</v>
+      </c>
+      <c r="F228" t="n">
+        <v>72.620003</v>
+      </c>
+      <c r="G228" t="n">
+        <v>369200</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>71.519997</v>
+      </c>
+      <c r="C229" t="n">
+        <v>72.260002</v>
+      </c>
+      <c r="D229" t="n">
+        <v>72.110001</v>
+      </c>
+      <c r="E229" t="n">
+        <v>72.160004</v>
+      </c>
+      <c r="F229" t="n">
+        <v>72.160004</v>
+      </c>
+      <c r="G229" t="n">
+        <v>44911</v>
       </c>
     </row>
   </sheetData>
